--- a/USFL_Schedule.xlsx
+++ b/USFL_Schedule.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\The-USFL-Data-Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08A3800-6DCC-4027-A729-4C6147C5C0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5AB0E5-70EB-4AA6-B23C-C544C00CCA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{EB4FD3FB-8EDB-4A25-8BF0-F4414F55C589}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EB4FD3FB-8EDB-4A25-8BF0-F4414F55C589}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
     <sheet name="NOTE" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Schedule!$A$1:$S$41</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="48">
   <si>
     <t>GameID</t>
   </si>
@@ -143,7 +146,43 @@
     <t>0-0</t>
   </si>
   <si>
-    <t>Games beyond week 2 are subject to change in time and date</t>
+    <t>Peacock</t>
+  </si>
+  <si>
+    <t>FOX</t>
+  </si>
+  <si>
+    <t>NBC</t>
+  </si>
+  <si>
+    <t>FS1</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Protective Stadium</t>
+  </si>
+  <si>
+    <t>Games beyond week 3 are subject to change in time and date</t>
+  </si>
+  <si>
+    <t>Unless noted, the Dates listed beyond week 3 are suggestions, and will change due to the leauge not scheduling all games in advance</t>
+  </si>
+  <si>
+    <t>Legion Field</t>
+  </si>
+  <si>
+    <t>Broadcast_18-49_Rating</t>
+  </si>
+  <si>
+    <t>0-1</t>
+  </si>
+  <si>
+    <t>1-0</t>
+  </si>
+  <si>
+    <t>FOX/NBC</t>
   </si>
 </sst>
 </file>
@@ -179,10 +218,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,22 +537,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE91D30F-BE0D-43B5-8B05-8014CDC4B286}">
-  <dimension ref="A1:R41"/>
+  <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="3"/>
+    <col min="14" max="14" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -537,7 +579,7 @@
       <c r="H1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -552,7 +594,7 @@
       <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="O1" t="s">
@@ -567,8 +609,11 @@
       <c r="R1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2022</v>
       </c>
@@ -576,11 +621,11 @@
         <v>1</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2:C40" si="0">YEAR(E2)&amp;"_"&amp;TEXT(E2,"mm")&amp;"_"&amp;TEXT(E2,"dd")&amp;"_"&amp;L2</f>
+        <f t="shared" ref="C2:C41" si="0">YEAR(E2)&amp;"_"&amp;TEXT(E2,"mm")&amp;"_"&amp;TEXT(E2,"dd")&amp;"_"&amp;L2</f>
         <v>2022_04_16_BIR</v>
       </c>
       <c r="D2" t="str">
-        <f>TEXT(E2,"dddd")</f>
+        <f t="shared" ref="D2:D41" si="1">TEXT(E2,"dddd")</f>
         <v>Saturday</v>
       </c>
       <c r="E2" s="2">
@@ -595,8 +640,11 @@
       <c r="H2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" t="s">
-        <v>34</v>
+      <c r="I2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2">
+        <v>24</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
@@ -604,11 +652,20 @@
       <c r="L2" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <v>28</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2022</v>
       </c>
@@ -620,7 +677,7 @@
         <v>2022_04_17_MIP</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D41" si="1">TEXT(E3,"dddd")</f>
+        <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
       <c r="E3" s="2">
@@ -635,7 +692,7 @@
       <c r="H3" t="s">
         <v>27</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="3" t="s">
         <v>34</v>
       </c>
       <c r="K3" t="s">
@@ -644,11 +701,17 @@
       <c r="L3" t="s">
         <v>30</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2022</v>
       </c>
@@ -675,7 +738,7 @@
       <c r="H4" t="s">
         <v>28</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="3" t="s">
         <v>34</v>
       </c>
       <c r="K4" t="s">
@@ -684,11 +747,17 @@
       <c r="L4" t="s">
         <v>33</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2022</v>
       </c>
@@ -715,7 +784,7 @@
       <c r="H5" t="s">
         <v>29</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="3" t="s">
         <v>34</v>
       </c>
       <c r="K5" t="s">
@@ -724,11 +793,17 @@
       <c r="L5" t="s">
         <v>31</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -761,8 +836,14 @@
       <c r="L6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O6" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2022</v>
       </c>
@@ -795,8 +876,14 @@
       <c r="L7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2022</v>
       </c>
@@ -829,8 +916,14 @@
       <c r="L8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2022</v>
       </c>
@@ -863,8 +956,14 @@
       <c r="L9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O9" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2022</v>
       </c>
@@ -873,29 +972,38 @@
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
-        <v>2022_05_01_NOB</v>
+        <v>2022_04_30_HOU</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="1"/>
-        <v>Sunday</v>
+        <v>Saturday</v>
       </c>
       <c r="E10" s="2">
-        <v>44682</v>
+        <v>44681</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.66666666666666663</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="O10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2022</v>
       </c>
@@ -904,29 +1012,38 @@
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
-        <v>2022_05_01_PHI</v>
+        <v>2022_04_30_MIP</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="1"/>
-        <v>Sunday</v>
+        <v>Saturday</v>
       </c>
       <c r="E11" s="2">
-        <v>44682</v>
+        <v>44681</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.83333333333333337</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="O11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2022</v>
       </c>
@@ -935,7 +1052,7 @@
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
-        <v>2022_05_01_MIP</v>
+        <v>2022_05_01_NOB</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="1"/>
@@ -944,20 +1061,29 @@
       <c r="E12" s="2">
         <v>44682</v>
       </c>
+      <c r="F12" s="1">
+        <v>0.60416666666666663</v>
+      </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="O12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2022</v>
       </c>
@@ -966,7 +1092,7 @@
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
-        <v>2022_05_01_HOU</v>
+        <v>2022_05_01_PHI</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="1"/>
@@ -975,20 +1101,29 @@
       <c r="E13" s="2">
         <v>44682</v>
       </c>
+      <c r="F13" s="1">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="G13" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="O13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -997,29 +1132,38 @@
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
-        <v>2022_05_08_PIT</v>
+        <v>2022_05_07_BIR</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="1"/>
-        <v>Sunday</v>
+        <v>Saturday</v>
       </c>
       <c r="E14" s="2">
-        <v>44689</v>
+        <v>44688</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.79166666666666663</v>
       </c>
       <c r="G14" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="L14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="O14" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2022</v>
       </c>
@@ -1028,7 +1172,7 @@
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
-        <v>2022_05_08_NOB</v>
+        <v>2022_05_08_PIT</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="1"/>
@@ -1038,19 +1182,22 @@
         <v>44689</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="O15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2022</v>
       </c>
@@ -1059,7 +1206,7 @@
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
-        <v>2022_05_08_MIP</v>
+        <v>2022_05_08_NOB</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="1"/>
@@ -1069,19 +1216,22 @@
         <v>44689</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="O16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2022</v>
       </c>
@@ -1090,7 +1240,7 @@
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
-        <v>2022_05_08_BIR</v>
+        <v>2022_05_08_MIP</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="1"/>
@@ -1100,19 +1250,22 @@
         <v>44689</v>
       </c>
       <c r="G17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="O17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2022</v>
       </c>
@@ -1142,8 +1295,11 @@
       <c r="L18" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2022</v>
       </c>
@@ -1173,8 +1329,11 @@
       <c r="L19" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2022</v>
       </c>
@@ -1204,8 +1363,11 @@
       <c r="L20" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2022</v>
       </c>
@@ -1235,8 +1397,11 @@
       <c r="L21" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2022</v>
       </c>
@@ -1245,29 +1410,38 @@
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
-        <v>2022_05_22_NJG</v>
+        <v>2022_05_21_BIR</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="1"/>
-        <v>Sunday</v>
+        <v>Saturday</v>
       </c>
       <c r="E22" s="2">
-        <v>44703</v>
+        <v>44702</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.54166666666666663</v>
       </c>
       <c r="G22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="O22" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2022</v>
       </c>
@@ -1276,7 +1450,7 @@
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
-        <v>2022_05_22_BIR</v>
+        <v>2022_05_22_NJG</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="1"/>
@@ -1286,19 +1460,22 @@
         <v>44703</v>
       </c>
       <c r="G23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="O23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2022</v>
       </c>
@@ -1328,8 +1505,11 @@
       <c r="L24" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2022</v>
       </c>
@@ -1359,8 +1539,11 @@
       <c r="L25" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2022</v>
       </c>
@@ -1369,29 +1552,32 @@
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
-        <v>2022_05_29_PIT</v>
+        <v>2022_05_28_TBB</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="1"/>
-        <v>Sunday</v>
+        <v>Saturday</v>
       </c>
       <c r="E26" s="2">
-        <v>44710</v>
+        <v>44709</v>
       </c>
       <c r="G26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H26" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="K26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="O26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2022</v>
       </c>
@@ -1400,29 +1586,32 @@
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
-        <v>2022_05_29_TBB</v>
+        <v>2022_05_28_MIP</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="1"/>
-        <v>Sunday</v>
+        <v>Saturday</v>
       </c>
       <c r="E27" s="2">
-        <v>44710</v>
+        <v>44709</v>
       </c>
       <c r="G27" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H27" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="K27" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="O27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2022</v>
       </c>
@@ -1431,29 +1620,32 @@
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
-        <v>2022_05_29_MIP</v>
+        <v>2022_05_28_HOU</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="1"/>
-        <v>Sunday</v>
+        <v>Saturday</v>
       </c>
       <c r="E28" s="2">
-        <v>44710</v>
+        <v>44709</v>
       </c>
       <c r="G28" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="O28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2022</v>
       </c>
@@ -1462,7 +1654,7 @@
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
-        <v>2022_05_29_HOU</v>
+        <v>2022_05_29_PIT</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="1"/>
@@ -1471,20 +1663,29 @@
       <c r="E29" s="2">
         <v>44710</v>
       </c>
+      <c r="F29" s="1">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="G29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" t="s">
+        <v>32</v>
+      </c>
+      <c r="K29" t="s">
         <v>23</v>
       </c>
-      <c r="H29" t="s">
+      <c r="L29" t="s">
         <v>31</v>
       </c>
-      <c r="K29" t="s">
-        <v>18</v>
-      </c>
-      <c r="L29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O29" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2022</v>
       </c>
@@ -1514,8 +1715,11 @@
       <c r="L30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2022</v>
       </c>
@@ -1545,8 +1749,11 @@
       <c r="L31" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2022</v>
       </c>
@@ -1576,8 +1783,11 @@
       <c r="L32" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2022</v>
       </c>
@@ -1607,8 +1817,11 @@
       <c r="L33" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2022</v>
       </c>
@@ -1638,8 +1851,11 @@
       <c r="L34" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2022</v>
       </c>
@@ -1669,8 +1885,11 @@
       <c r="L35" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2022</v>
       </c>
@@ -1700,8 +1919,11 @@
       <c r="L36" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2022</v>
       </c>
@@ -1731,8 +1953,11 @@
       <c r="L37" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2022</v>
       </c>
@@ -1762,8 +1987,11 @@
       <c r="L38" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2022</v>
       </c>
@@ -1793,8 +2021,11 @@
       <c r="L39" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2022</v>
       </c>
@@ -1824,8 +2055,11 @@
       <c r="L40" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2022</v>
       </c>
@@ -1833,7 +2067,7 @@
         <v>10</v>
       </c>
       <c r="C41" t="str">
-        <f>YEAR(E41)&amp;"_"&amp;TEXT(E41,"mm")&amp;"_"&amp;TEXT(E41,"dd")&amp;"_"&amp;L41</f>
+        <f t="shared" si="0"/>
         <v>2022_06_19_NJG</v>
       </c>
       <c r="D41" t="str">
@@ -1855,8 +2089,12 @@
       <c r="L41" t="s">
         <v>26</v>
       </c>
+      <c r="O41" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:S41" xr:uid="{EE91D30F-BE0D-43B5-8B05-8014CDC4B286}"/>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -1905,7 +2143,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB064B15-70EE-4D71-941D-13D485C989C1}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1915,7 +2153,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/USFL_Schedule.xlsx
+++ b/USFL_Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\The-USFL-Data-Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5AB0E5-70EB-4AA6-B23C-C544C00CCA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785A6A4C-968D-44AA-BFF0-8DC499242456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EB4FD3FB-8EDB-4A25-8BF0-F4414F55C589}"/>
+    <workbookView xWindow="25620" yWindow="2265" windowWidth="18315" windowHeight="10875" xr2:uid="{EB4FD3FB-8EDB-4A25-8BF0-F4414F55C589}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="47">
   <si>
     <t>GameID</t>
   </si>
@@ -141,9 +141,6 @@
   </si>
   <si>
     <t>NOB</t>
-  </si>
-  <si>
-    <t>0-0</t>
   </si>
   <si>
     <t>Peacock</t>
@@ -543,7 +540,7 @@
       <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,7 +607,7 @@
         <v>15</v>
       </c>
       <c r="S1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -641,7 +638,7 @@
         <v>26</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J2">
         <v>24</v>
@@ -656,13 +653,13 @@
         <v>28</v>
       </c>
       <c r="N2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" t="s">
         <v>46</v>
-      </c>
-      <c r="O2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -693,7 +690,10 @@
         <v>27</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>34</v>
+        <v>45</v>
+      </c>
+      <c r="J3">
+        <v>17</v>
       </c>
       <c r="K3" t="s">
         <v>19</v>
@@ -701,14 +701,17 @@
       <c r="L3" t="s">
         <v>30</v>
       </c>
+      <c r="M3">
+        <v>12</v>
+      </c>
       <c r="N3" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="O3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -739,7 +742,10 @@
         <v>28</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="J4">
+        <v>17</v>
       </c>
       <c r="K4" t="s">
         <v>21</v>
@@ -747,14 +753,17 @@
       <c r="L4" t="s">
         <v>33</v>
       </c>
+      <c r="M4">
+        <v>23</v>
+      </c>
       <c r="N4" s="3" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -785,7 +794,10 @@
         <v>29</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>34</v>
+        <v>45</v>
+      </c>
+      <c r="J5">
+        <v>17</v>
       </c>
       <c r="K5" t="s">
         <v>23</v>
@@ -793,14 +805,17 @@
       <c r="L5" t="s">
         <v>31</v>
       </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
       <c r="N5" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="O5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -830,17 +845,23 @@
       <c r="H6" t="s">
         <v>30</v>
       </c>
+      <c r="I6" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="K6" t="s">
         <v>16</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
       </c>
+      <c r="N6" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="O6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -870,17 +891,23 @@
       <c r="H7" t="s">
         <v>31</v>
       </c>
+      <c r="I7" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="K7" t="s">
         <v>20</v>
       </c>
       <c r="L7" t="s">
         <v>28</v>
       </c>
+      <c r="N7" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="O7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -910,17 +937,23 @@
       <c r="H8" t="s">
         <v>32</v>
       </c>
+      <c r="I8" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="K8" t="s">
         <v>18</v>
       </c>
       <c r="L8" t="s">
         <v>27</v>
       </c>
+      <c r="N8" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="O8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -950,17 +983,23 @@
       <c r="H9" t="s">
         <v>33</v>
       </c>
+      <c r="I9" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="K9" t="s">
         <v>22</v>
       </c>
       <c r="L9" t="s">
         <v>29</v>
       </c>
+      <c r="N9" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="O9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -997,10 +1036,10 @@
         <v>27</v>
       </c>
       <c r="O10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -1037,10 +1076,10 @@
         <v>30</v>
       </c>
       <c r="O11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -1077,10 +1116,10 @@
         <v>33</v>
       </c>
       <c r="O12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -1117,10 +1156,10 @@
         <v>28</v>
       </c>
       <c r="O13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -1157,10 +1196,10 @@
         <v>32</v>
       </c>
       <c r="O14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -1194,7 +1233,7 @@
         <v>31</v>
       </c>
       <c r="O15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -1228,7 +1267,7 @@
         <v>33</v>
       </c>
       <c r="O16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -1262,7 +1301,7 @@
         <v>30</v>
       </c>
       <c r="O17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -1296,7 +1335,7 @@
         <v>28</v>
       </c>
       <c r="O18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -1330,7 +1369,7 @@
         <v>29</v>
       </c>
       <c r="O19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -1364,7 +1403,7 @@
         <v>26</v>
       </c>
       <c r="O20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -1398,7 +1437,7 @@
         <v>27</v>
       </c>
       <c r="O21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -1435,10 +1474,10 @@
         <v>32</v>
       </c>
       <c r="O22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -1472,7 +1511,7 @@
         <v>26</v>
       </c>
       <c r="O23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -1506,7 +1545,7 @@
         <v>33</v>
       </c>
       <c r="O24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -1540,7 +1579,7 @@
         <v>28</v>
       </c>
       <c r="O25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -1574,7 +1613,7 @@
         <v>29</v>
       </c>
       <c r="O26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -1608,7 +1647,7 @@
         <v>30</v>
       </c>
       <c r="O27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -1642,7 +1681,7 @@
         <v>27</v>
       </c>
       <c r="O28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -1679,10 +1718,10 @@
         <v>31</v>
       </c>
       <c r="O29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -1716,7 +1755,7 @@
         <v>29</v>
       </c>
       <c r="O30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -1750,7 +1789,7 @@
         <v>28</v>
       </c>
       <c r="O31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -1784,7 +1823,7 @@
         <v>32</v>
       </c>
       <c r="O32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -1818,7 +1857,7 @@
         <v>26</v>
       </c>
       <c r="O33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -1852,7 +1891,7 @@
         <v>32</v>
       </c>
       <c r="O34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -1886,7 +1925,7 @@
         <v>30</v>
       </c>
       <c r="O35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -1920,7 +1959,7 @@
         <v>31</v>
       </c>
       <c r="O36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -1954,7 +1993,7 @@
         <v>33</v>
       </c>
       <c r="O37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -1988,7 +2027,7 @@
         <v>29</v>
       </c>
       <c r="O38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -2022,7 +2061,7 @@
         <v>31</v>
       </c>
       <c r="O39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -2056,7 +2095,7 @@
         <v>27</v>
       </c>
       <c r="O40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -2090,7 +2129,7 @@
         <v>26</v>
       </c>
       <c r="O41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2153,12 +2192,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
